--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\엑셀 파일 읽기 node\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42F95C0-DC1D-4E0D-9988-56ABFDA7FE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32213673-1B9C-4757-985D-7A877DFF9619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{3CFBAC0A-AA90-4479-B70D-71885EFF3ECB}"/>
+    <workbookView xWindow="2445" yWindow="735" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{3CFBAC0A-AA90-4479-B70D-71885EFF3ECB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1stGrade" sheetId="1" r:id="rId1"/>
+    <sheet name="2ndGrade" sheetId="2" r:id="rId2"/>
+    <sheet name="3rdGrade" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +47,30 @@
   </si>
   <si>
     <t>StudentID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박XX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구OO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이OO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박YY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김YY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C360BA9A-2EA1-4FA5-9EA5-840382722E0C}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -435,9 +461,129 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>11001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>10320</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006E5D91-CEE6-448B-B8D8-1FD916DD4F8F}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>20912</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>20311</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D2AB0F-8830-4860-A228-9A2541FA214F}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>30910</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>30123</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\엑셀 파일 읽기 node\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32213673-1B9C-4757-985D-7A877DFF9619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BCCA39-F197-4397-BD4D-68771BD9F5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="735" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{3CFBAC0A-AA90-4479-B70D-71885EFF3ECB}"/>
+    <workbookView xWindow="2445" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{3CFBAC0A-AA90-4479-B70D-71885EFF3ECB}"/>
   </bookViews>
   <sheets>
     <sheet name="1stGrade" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,30 +47,6 @@
   </si>
   <si>
     <t>StudentID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김XX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박XX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구OO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이OO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박YY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김YY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C360BA9A-2EA1-4FA5-9EA5-840382722E0C}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -461,28 +437,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>11001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>10320</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -492,10 +446,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{006E5D91-CEE6-448B-B8D8-1FD916DD4F8F}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -511,28 +465,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>20912</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>20311</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -541,10 +473,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72D2AB0F-8830-4860-A228-9A2541FA214F}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -560,30 +492,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>30910</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>30123</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>